--- a/Набор тестов для главной функции.xlsx
+++ b/Набор тестов для главной функции.xlsx
@@ -238,72 +238,19 @@
     <t>Искомая функция отсутствует</t>
   </si>
   <si>
-    <t>"int main()"
-"{"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Искомая функция задана только прототипом</t>
-  </si>
-  <si>
-    <t>"int someFunction(int);"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Искомая функция задана и прототим и определением</t>
   </si>
   <si>
-    <t>"int someFunction(int);"
-"int main()"
-"{"
-"}"
-"int someFunction(int a)"
-"{"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Имеется один вызов искомой функции без определения</t>
-  </si>
-  <si>
-    <t>"int main()"
-"{"
-"    int a = 0;"
-"    int b = someFunction(a);"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Имеется один вызов функции, определенной перед вызовом</t>
   </si>
   <si>
-    <t>"int someFunction(int a)"
-"{"
-"}"
-"int main()"
-"{"
-"   int a = 0;"
-"   int b = someFunction(a);"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Имеется один вызов функции, определенной после вызова</t>
-  </si>
-  <si>
-    <t>"int main()"
-"{"
-"   int a = 0;"
-"   int b = someFunction(a);"
-"}"
-"int someFunction(int a)"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Имеется несколько вызовов функции без определения</t>
@@ -312,49 +259,7 @@
     <t>Имеется несколько вызовов функции, определенной перед вызовом</t>
   </si>
   <si>
-    <t>"int main()"
-"{"
-"   int a = count("some string");"
-"   int b = someFunction(a);"
-"}"
-"int count(char str[])"
-"{"
-"   return someFunction(someFunction(0));"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
-    <t>"int someFunction(int a)"
-"{"
-"}"
-"int main()"
-"{"
-"   int a = count("some string");"
-"   int b = someFunction(a);"
-"}"
-"int count(char str[])"
-"{"
-"   return someFunction(someFunction(0));"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Имеется несколько вызовов функции, определенной после вызова</t>
-  </si>
-  <si>
-    <t>"int main()"
-"{"
-"   int a = count("some string");"
-"   int b = someFunction(a);"
-"}"
-"int count(char str[])"
-"{"
-"   return someFunction(someFunction(0));"
-"}"
-"int someFunction(int a)"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Искомая функция полностью закомментирована</t>
@@ -363,130 +268,22 @@
     <t>Имя функции использовано как имя пермененной</t>
   </si>
   <si>
-    <t>"// int someFuntion(int a)"
-"// {"
-"// }"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
-    <t>"int main()"
-"{"
-"   int someFunction = 0;"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Тело функции состоит из пустых строк</t>
-  </si>
-  <si>
-    <t>"int someFunction(int a)"
-"{"
-""
-""
-""
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
-    <t>"int someFunction(int a)"
-"{"
-"    int c = 0;"
-"    doSmth(c);"
-"    return c;"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Наличие операторов в теле искомой функции</t>
   </si>
   <si>
-    <t>"int someFunction(int c)"
-"{"
-"    for(int i = 0; i &lt; 10; i++)"
-"    {"
-"    }"
-"    if (c &gt; i)"
-"    {"
-"        return 1;"
-"    }"
-"    else"
-"    {"
-"        return c;"
-"    }"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Наличие вложенных операторов в теле искомой функции</t>
   </si>
   <si>
-    <t xml:space="preserve">"int someFunction(int c)"
-"{"
-"    for(int i = 0; i &lt; 10; i++)"
-"    {"
-"        if (c &gt; i)"
-"        {"
-"            while(i &lt; c)"
-"            {"
-"                i++;"
-"            }"
-"         }"
-"    }"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"
-</t>
-  </si>
-  <si>
     <t>Составной тип возвращаемого значения функции</t>
-  </si>
-  <si>
-    <t>"unsigned short int someFunction(int arg1, double arg2)"
-"{"
-"    unsigned short int c = arg1 + arg2;"
-"    return c"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>В начале тела, в середине тела, в конце тела</t>
   </si>
   <si>
     <t>Тело функции состоит из непустых строк</t>
-  </si>
-  <si>
-    <t>"int someFunction(int a)"
-"{"
-"    int c = 0;"
-"//  doSmth(c);"
-""
-"// просто комментарий"
-""
-"    c = 1 + 3;"
-"// еще комментарий"
-"    return c;"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>// Найти определение искомой функции в тексте программы.</t>
@@ -590,29 +387,7 @@
 "    int c = arg1 + arg2;"
 "// Комментарий"
 "    return c;"
-"}"
-"int main()"
-"{"
 "}"</t>
-  </si>
-  <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"    int c = arg1 + arg2;"
-"// Комментарий"
-"    return c;"
-"}"</t>
-  </si>
-  <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"    int c = arg1 + arg2;"
-"    return c;"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Положение пустых и непустых строк в теле функции</t>
@@ -648,37 +423,10 @@
     <t>Искомая функция в тексте</t>
   </si>
   <si>
-    <t>"int someFunction(int a)"
-"{"
-"}"
-"int someFunction1(int a)"
-"{"
-"}"
-"int someFunctionOne(int a)"
-"{"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Несколько, похожих на искому функцию, функций в тексте</t>
   </si>
   <si>
     <t>Искомая функция частично закомментирована</t>
-  </si>
-  <si>
-    <t>"int someFunction(int a)"
-"{"
-"// int c;"
-"// doSmth();"
-"//}"
-"}"
-"int main()"
-"{"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Непустые строки в теле функции расположены в начале, середине и в конце. Пустые строки в середине тела функции.</t>
@@ -687,7 +435,229 @@
     <t>Пустые строки в теле функции расположены в начале, середине и в конце. Непустые в середине тела функции.</t>
   </si>
   <si>
-    <t>"int someFunction(int a)"
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"// Комментарий"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int);"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2);"
+"int main()"
+"{"
+"return 0;"
+"}"
+"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"// Комментарий"
+"    return c;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"    int a = 0;"
+"    int b = someFunction(a, 0.1);"
+"    return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"   int a = 0;"
+"   int b = someFunction(a, 0.1);"
+"   return 0;"
+"}"
+"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"// Комментарий"
+"    return c;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"// int someFunction(int arg1, double arg2)"
+"// {"
+"//    int c = arg1 + arg2;"
+"// Комментарий"
+"//    return c;"
+"// }"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"// Комментарий"
+"    return c;"
+"}"
+"int main()"
+"{"
+"   int a = 0;"
+"   int b = someFunction(a, 0.1);"
+"   return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"   int a = count("some string");"
+"   int b = someFunction(a, 0.1);"
+"   return 0;"
+"}"
+"int count(char str[])"
+"{"
+"   return someFunction(someFunction(0, 0.0), 1.1);"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"// Комментарий"
+"    return c;"
+"}"
+"int main()"
+"{"
+"   int a = count("some string");"
+"   int b = someFunction(a, 0.1);"
+"   return 0;"
+"}"
+"int count(char str[])"
+"{"
+"   return someFunction(someFunction(0, 0.0), 1.1);"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"   int a = count("some string");"
+"   int b = someFunction(a, 1.1);"
+"   return 0;"
+"}"
+"int count(char str[])"
+"{"
+"   return someFunction(someFunction(0, 0.1), 1.1);"
+"}"
+"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"// Комментарий"
+"    return c;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"//    int c = arg1 + arg2;"
+"// Комментарий"
+"//    return c;"
+"//}"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"   int someFunction = 0;"
+"   return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+""
+""
+""
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"unsigned short int someFunction(int arg1, double arg2)"
+"{"
+"    unsigned short int c = arg1 + arg2;"
+"    return c"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunctionsomeFunctionOne(int arg1, double arg2)"
+"{"
+"return 0;"
+"}"
+"int someFunction(int arg1, double arg2)"
+"{"
+"return 0;"
+"}"
+"int someFunction1(int arg1, double arg2)"
+"{"
+"return 0;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
 "{"
 ""
 "//  doSmth(c);"
@@ -700,15 +670,89 @@
 "}"
 "int main()"
 "{"
+"return 0;"
 "}"
 , "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = 0;"
+"    doSmth(c);"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = 0;"
+"//  doSmth(c);"
+""
+"// просто комментарий"
+""
+"    c = 1 + 3;"
+"// еще комментарий"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    for(int i = 0; i &lt; 10; i++)"
+"    {"
+"    }"
+"    if (arg1 &gt; i)"
+"    {"
+"        return 1;"
+"    }"
+"    else"
+"    {"
+"        return arg1;"
+"    }"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"int someFunction(int arg1, double arg2)"
+"{"
+"    for(int i = 0; i &lt; 10; i++)"
+"    {"
+"        if (arg1 &gt; i)"
+"        {"
+"            while(i &lt; arg1)"
+"            {"
+"                i++;"
+"            }"
+"         }"
+"    }"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, "someFunction"
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -862,6 +906,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -911,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1008,6 +1059,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1424,7 @@
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1638,7 +1695,7 @@
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="5"/>
@@ -1898,7 +1955,7 @@
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2678,10 +2735,10 @@
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3729,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4250,7 +4307,7 @@
     </row>
     <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>23</v>
@@ -4774,10 +4831,10 @@
     </row>
     <row r="14" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A14" s="36" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -5818,12 +5875,12 @@
       <c r="IU17" s="22"/>
       <c r="IV17" s="22"/>
     </row>
-    <row r="18" spans="1:256" ht="213.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:256" ht="241.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -6347,7 +6404,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -6620,8 +6677,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6892,7 +6949,7 @@
     </row>
     <row r="2" spans="1:256" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -7152,7 +7209,7 @@
     </row>
     <row r="3" spans="1:256" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7930,12 +7987,12 @@
       <c r="IU5" s="3"/>
       <c r="IV5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="125.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8192,12 +8249,12 @@
       <c r="IU6" s="3"/>
       <c r="IV6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="222.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="242.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8454,12 +8511,12 @@
       <c r="IU7" s="3"/>
       <c r="IV7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="304.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="368.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8716,12 +8773,12 @@
       <c r="IU8" s="3"/>
       <c r="IV8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="117" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8978,12 +9035,12 @@
       <c r="IU9" s="3"/>
       <c r="IV9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="297.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -9240,12 +9297,12 @@
       <c r="IU10" s="3"/>
       <c r="IV10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="140.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:256" ht="163.80000000000001" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9502,12 +9559,12 @@
       <c r="IU11" s="10"/>
       <c r="IV11" s="10"/>
     </row>
-    <row r="12" spans="1:256" ht="210.6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:256" ht="318" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9764,12 +9821,12 @@
       <c r="IU12" s="10"/>
       <c r="IV12" s="10"/>
     </row>
-    <row r="13" spans="1:256" ht="210.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:256" ht="328.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -10026,12 +10083,12 @@
       <c r="IU13" s="10"/>
       <c r="IV13" s="10"/>
     </row>
-    <row r="14" spans="1:256" ht="234" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:256" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>42</v>
+      <c r="B14" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -10288,12 +10345,12 @@
       <c r="IU14" s="10"/>
       <c r="IV14" s="10"/>
     </row>
-    <row r="15" spans="1:256" ht="304.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:256" ht="397.8" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -10550,12 +10607,12 @@
       <c r="IU15" s="10"/>
       <c r="IV15" s="10"/>
     </row>
-    <row r="16" spans="1:256" ht="304.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:256" ht="409.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -10812,84 +10869,84 @@
       <c r="IU16" s="10"/>
       <c r="IV16" s="10"/>
     </row>
-    <row r="17" spans="1:2" ht="163.80000000000001" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="274.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="234" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="297.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="262.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="117" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>47</v>
+    <row r="22" spans="1:2" ht="396.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>57</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>49</v>
+      <c r="B22" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="234" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>50</v>
+    <row r="23" spans="1:2" ht="400.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>56</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>51</v>
+      <c r="B23" s="38" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="234" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>60</v>
+    <row r="24" spans="1:2" ht="399" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>40</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>52</v>
+      <c r="B24" s="42" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="351" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>78</v>
+    <row r="25" spans="1:2" ht="399" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>41</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B25" s="42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="351" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="210.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="264" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
